--- a/documentation/Defects and Enhancements.xlsx
+++ b/documentation/Defects and Enhancements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16ecbb52d5e766a3/Documents/TechStuff/Projects/Enlarger_Timer/FADU_Timer/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\OneDrive\Documents\TechStuff\Projects\Enlarger_Timer\FADU_Timer\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{3CBD49A9-EBAC-4436-B860-85F4D7170538}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FD27CD33-2055-4781-A7F6-9C6485676C97}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{3CBD49A9-EBAC-4436-B860-85F4D7170538}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{38577ADB-93B4-4E26-B95F-AAA2327A2817}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{736E6442-F76E-41A5-9606-E17F3A3051F3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Status</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>To be updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +951,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>

--- a/documentation/Defects and Enhancements.xlsx
+++ b/documentation/Defects and Enhancements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\OneDrive\Documents\TechStuff\Projects\Enlarger_Timer\FADU_Timer\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{3CBD49A9-EBAC-4436-B860-85F4D7170538}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{38577ADB-93B4-4E26-B95F-AAA2327A2817}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{3CBD49A9-EBAC-4436-B860-85F4D7170538}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{30400351-4450-42CC-B274-723D92DDA3F7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{736E6442-F76E-41A5-9606-E17F3A3051F3}"/>
+    <workbookView xWindow="2895" yWindow="2820" windowWidth="24705" windowHeight="12015" xr2:uid="{736E6442-F76E-41A5-9606-E17F3A3051F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="44">
   <si>
     <t>Status</t>
   </si>
@@ -147,7 +147,22 @@
     <t>To be updated</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>CONT mode</t>
+  </si>
+  <si>
+    <t>FIX IT!</t>
+  </si>
+  <si>
+    <t>Reverted code changes that caused the issue.  I am an idiot</t>
+  </si>
+  <si>
+    <t>Timing runnning slow per strip</t>
+  </si>
+  <si>
+    <t>FIxing 7 above broke [RST] in STRIPS mode</t>
+  </si>
+  <si>
+    <t>Restore functionality</t>
   </si>
 </sst>
 </file>
@@ -698,9 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871DEB98-E520-4C60-BE88-D7878B15EB24}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -946,36 +959,64 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">

--- a/documentation/Defects and Enhancements.xlsx
+++ b/documentation/Defects and Enhancements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\OneDrive\Documents\TechStuff\Projects\Enlarger_Timer\FADU_Timer\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{3CBD49A9-EBAC-4436-B860-85F4D7170538}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{30400351-4450-42CC-B274-723D92DDA3F7}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{3CBD49A9-EBAC-4436-B860-85F4D7170538}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FCEBDBAB-7D54-4CF8-A46C-E6239534102C}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="2820" windowWidth="24705" windowHeight="12015" xr2:uid="{736E6442-F76E-41A5-9606-E17F3A3051F3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="45">
   <si>
     <t>Status</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Restore functionality</t>
+  </si>
+  <si>
+    <t>Functionality restored.</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871DEB98-E520-4C60-BE88-D7878B15EB24}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -993,31 +996,37 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">

--- a/documentation/Defects and Enhancements.xlsx
+++ b/documentation/Defects and Enhancements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\OneDrive\Documents\TechStuff\Projects\Enlarger_Timer\FADU_Timer\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{3CBD49A9-EBAC-4436-B860-85F4D7170538}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FCEBDBAB-7D54-4CF8-A46C-E6239534102C}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="8_{3CBD49A9-EBAC-4436-B860-85F4D7170538}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{2A079F58-97CF-43B2-939A-A46AAF3BCFB4}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="2820" windowWidth="24705" windowHeight="12015" xr2:uid="{736E6442-F76E-41A5-9606-E17F3A3051F3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Status</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Lowered end-beep and incresed strip-end warning beep frequencies. Tick shorter and colume increased to fit other sounds better.  Trimmed all silence from samples.</t>
   </si>
   <si>
-    <t>N/S</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -166,6 +163,21 @@
   </si>
   <si>
     <t>Functionality restored.</t>
+  </si>
+  <si>
+    <t>CONT mode with delay</t>
+  </si>
+  <si>
+    <t>seems the two CONT modes do not like each other…  With/without delay = mutually exclusive.</t>
+  </si>
+  <si>
+    <t>Same as 1.  Fixing it broke Counin = 0 mode!</t>
+  </si>
+  <si>
+    <t>Redesign.  Now three Strips Modes to avoiud confusion when using Delay to define which CONT mode we are in.  MAN: manual = stops at the end of each strip;  STEP: Delay at end of each strip;  CONT : does not stop - beeps at 0.5s defore the end of each strip.</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -213,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -226,9 +238,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -383,8 +392,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFF8080"/>
       <color rgb="FFFF4040"/>
-      <color rgb="FFFF8080"/>
     </mruColors>
   </colors>
   <extLst>
@@ -716,7 +725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871DEB98-E520-4C60-BE88-D7878B15EB24}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -779,7 +790,7 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -802,35 +813,35 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -934,7 +945,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -942,23 +953,23 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -983,16 +994,16 @@
         <v>9</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1016,35 +1027,53 @@
         <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    </row>
+    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>

--- a/documentation/Defects and Enhancements.xlsx
+++ b/documentation/Defects and Enhancements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\OneDrive\Documents\TechStuff\Projects\Enlarger_Timer\FADU_Timer\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="8_{3CBD49A9-EBAC-4436-B860-85F4D7170538}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{2A079F58-97CF-43B2-939A-A46AAF3BCFB4}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="8_{3CBD49A9-EBAC-4436-B860-85F4D7170538}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B047345C-399A-4D3E-903A-0D43B46334B2}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="2820" windowWidth="24705" windowHeight="12015" xr2:uid="{736E6442-F76E-41A5-9606-E17F3A3051F3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Status</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Version Fixed</t>
   </si>
   <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t>1.3.3</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -57,127 +51,49 @@
     <t>Issue</t>
   </si>
   <si>
-    <t>After 1st count, the count is &lt;&lt; 0.1s per tick.</t>
-  </si>
-  <si>
     <t>STRIPS</t>
   </si>
   <si>
-    <t>Any</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
-    <t>Strip base time value at the botom of the screen [lblStripBaseTime] is loaded on app startup but the display is not set to this value.</t>
-  </si>
-  <si>
-    <t>FIX</t>
-  </si>
-  <si>
-    <t>Timer counting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procedure "StartMainTimer" did not set START_MS if called by the clkCountIn.Timer block with count-in &gt; 0 (i.e. when we want a delay between strips). </t>
-  </si>
-  <si>
-    <t>Strip mode = CONT; Settings-&gt;Delay &gt; 0 (i.e. Continuous mode with a delay between strips)</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Ticks and beeps inconsitent in volume and frequency and length</t>
-  </si>
-  <si>
-    <t>Improve the quality of the sounds.</t>
-  </si>
-  <si>
     <t>Release Note</t>
   </si>
   <si>
-    <t>Hitting STOP in mid Strips sequence leaves the timer in an undefined state.</t>
-  </si>
-  <si>
     <t>Fix Requirements</t>
   </si>
   <si>
-    <t>When moving to Strips or Main timing mode tabs, the timer switches to the new mode. Timing is disrupted and confusing to the user.</t>
-  </si>
-  <si>
-    <t>Timer should always count in 100ms incements.</t>
-  </si>
-  <si>
-    <t>Do not load this value on startup.  Force user to set the strip base-time via the display and the SET button.</t>
-  </si>
-  <si>
-    <t>Value no longer loaded on startup.</t>
-  </si>
-  <si>
-    <t>Timer should not switch mode when changing tab.</t>
-  </si>
-  <si>
-    <t>New globals STRIPS_MODE _ENABLED and MAIN_MODE_ENABLED used to set the mode (previously relied on visibility of the Strips mode screen to detect which mode of timing to use).</t>
-  </si>
-  <si>
-    <t>DEFECTS AND ENHANCEMENTS</t>
-  </si>
-  <si>
     <t>Issue Number</t>
   </si>
   <si>
-    <t>Hitting [RST] in STRIPS mode should reload the strip base time value to allow a new strip-mode timing with the previous base time value.</t>
-  </si>
-  <si>
-    <t>In STRIPS mode, [RST] now works to reset the timer to the value previously set by the [SET] button if the timer is paused.  In MAIN timer mode, it works as before.</t>
-  </si>
-  <si>
-    <t>Lowered end-beep and incresed strip-end warning beep frequencies. Tick shorter and colume increased to fit other sounds better.  Trimmed all silence from samples.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Manual requires updating to reflect the additional functionality and defect fixes.</t>
-  </si>
-  <si>
-    <t>To be updated</t>
-  </si>
-  <si>
-    <t>CONT mode</t>
-  </si>
-  <si>
-    <t>FIX IT!</t>
-  </si>
-  <si>
-    <t>Reverted code changes that caused the issue.  I am an idiot</t>
-  </si>
-  <si>
-    <t>Timing runnning slow per strip</t>
-  </si>
-  <si>
-    <t>FIxing 7 above broke [RST] in STRIPS mode</t>
-  </si>
-  <si>
-    <t>Restore functionality</t>
-  </si>
-  <si>
-    <t>Functionality restored.</t>
-  </si>
-  <si>
-    <t>CONT mode with delay</t>
-  </si>
-  <si>
-    <t>seems the two CONT modes do not like each other…  With/without delay = mutually exclusive.</t>
-  </si>
-  <si>
-    <t>Same as 1.  Fixing it broke Counin = 0 mode!</t>
-  </si>
-  <si>
-    <t>Redesign.  Now three Strips Modes to avoiud confusion when using Delay to define which CONT mode we are in.  MAN: manual = stops at the end of each strip;  STEP: Delay at end of each strip;  CONT : does not stop - beeps at 0.5s defore the end of each strip.</t>
-  </si>
-  <si>
-    <t>In progress</t>
+    <t>DEFECTS AND ENHANCEMENTS Version 1.3.4</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Need to add a single-strips mode to allow each strip to have the full f-stop adjusted time instead of an incremental time.</t>
+  </si>
+  <si>
+    <t>Addd new SINGLE mode to theStrips mode screen.</t>
+  </si>
+  <si>
+    <t>In Strips tab.</t>
+  </si>
+  <si>
+    <t>List of strip times can usefully be larger.</t>
+  </si>
+  <si>
+    <t>Set then to 16 Bold and adjust columns as necessary.</t>
+  </si>
+  <si>
+    <t>Will overflow the alotted space if the strip-time &gt; 999.9 seconds, but if you are using such long times, you have more serious problems.</t>
   </si>
 </sst>
 </file>
@@ -208,7 +124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,11 +152,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -251,6 +167,9 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -261,9 +180,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -408,19 +324,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6B85C10-F592-481D-A956-F7AFAE7B059C}" name="Table1" displayName="Table1" ref="A3:J13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:J13" xr:uid="{5BF12587-82C4-494F-B99C-6BF1DD97078A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6B85C10-F592-481D-A956-F7AFAE7B059C}" name="Table1" displayName="Table1" ref="A3:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A3:J9" xr:uid="{5BF12587-82C4-494F-B99C-6BF1DD97078A}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AB222748-23DB-4AE2-900B-3E79A9889B5F}" name="Issue Number" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{05AE2F3A-1B3A-4EB5-8D69-4CC3F7B32BBA}" name="Priority" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{E4048DC5-3B10-4327-9134-3741C6B64273}" name="Status" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C04235DD-C513-4CDD-BAF4-49DC0FC9B265}" name="Version Found" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{C2CEB40F-BA34-4F94-AF4B-CA7C16EA973B}" name="Version Fixed" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9981D987-481D-43A0-A385-78D48791078B}" name="Screen" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F8FBDE84-E169-4545-92CE-FD106BF001B3}" name="Settings" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{E5646472-8054-4F89-9283-2094DE6791CC}" name="Issue" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{72327442-8288-4FEA-851C-1C93F8CBDB3B}" name="Fix Requirements" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{7A56E528-2513-4793-B53C-514229CF7D1B}" name="Release Note" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AB222748-23DB-4AE2-900B-3E79A9889B5F}" name="Issue Number" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{05AE2F3A-1B3A-4EB5-8D69-4CC3F7B32BBA}" name="Priority" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E4048DC5-3B10-4327-9134-3741C6B64273}" name="Status" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C04235DD-C513-4CDD-BAF4-49DC0FC9B265}" name="Version Found" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C2CEB40F-BA34-4F94-AF4B-CA7C16EA973B}" name="Version Fixed" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{9981D987-481D-43A0-A385-78D48791078B}" name="Screen" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F8FBDE84-E169-4545-92CE-FD106BF001B3}" name="Settings" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E5646472-8054-4F89-9283-2094DE6791CC}" name="Issue" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{72327442-8288-4FEA-851C-1C93F8CBDB3B}" name="Fix Requirements" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{7A56E528-2513-4793-B53C-514229CF7D1B}" name="Release Note" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -723,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871DEB98-E520-4C60-BE88-D7878B15EB24}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,15 +661,15 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -765,327 +681,130 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <f>A4+1</f>
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f>A5+1</f>
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>26</v>
-      </c>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <f t="shared" ref="A7:A13" si="0">A6+1</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>28</v>
-      </c>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
